--- a/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>ESSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,20 +990,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -964,11 +1018,17 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,10 +1036,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -993,11 +1053,17 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1035,11 +1103,17 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,20 +1176,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1122,11 +1208,17 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,20 +1281,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1209,23 +1313,29 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1238,11 +1348,17 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1383,23 +1523,29 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1412,11 +1558,17 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,20 +1596,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1470,45 +1628,57 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,25 +1705,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1562,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,19 +1841,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1678,25 +1876,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1707,19 +1911,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>138800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>138800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>138800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,26 +2086,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,26 +2156,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>139400</v>
+      </c>
+      <c r="F54" s="3">
         <v>139500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,26 +2256,32 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,13 +2291,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2037,11 +2311,11 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2052,26 +2326,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,26 +2536,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,25 +2726,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>500</v>
+      </c>
+      <c r="F72" s="3">
         <v>700</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,25 +2866,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>139000</v>
+      </c>
+      <c r="F76" s="3">
         <v>139100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,54 +2936,66 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -2618,11 +3008,17 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>138800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,20 +3651,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3177,9 +3681,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>ESSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,23 +1017,24 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1024,11 +1050,14 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,11 +1068,11 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1059,11 +1088,14 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1089,11 +1122,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1109,11 +1142,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,23 +1221,26 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1214,11 +1256,14 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,23 +1335,26 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1319,26 +1370,29 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1354,11 +1408,14 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1509,11 +1578,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1529,26 +1598,29 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1564,11 +1636,14 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,23 +1677,26 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1634,51 +1712,57 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,28 +1792,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1742,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,13 +1942,16 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -1861,8 +1959,8 @@
       <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1882,28 +1980,31 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1917,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1931,8 +2035,8 @@
       <c r="F47" s="3">
         <v>138800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>138800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1952,8 +2056,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2106,15 +2225,15 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,28 +2284,31 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E54" s="3">
         <v>139200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>139400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>139500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,28 +2392,31 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2297,8 +2430,11 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2306,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2317,8 +2453,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2332,8 +2468,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2341,19 +2480,19 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2416,8 +2561,8 @@
       <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2551,19 +2708,19 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,28 +2902,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>700</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,28 +3054,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E76" s="3">
         <v>138800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>139000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>139100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,63 +3130,69 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3014,11 +3208,14 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3599,31 +3844,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>138800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,23 +3905,26 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3687,9 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>ESSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,26 +1044,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1053,11 +1080,14 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,17 +1095,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1091,11 +1121,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,11 +1159,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1145,11 +1179,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,26 +1264,29 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1259,11 +1302,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,26 +1387,29 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1373,29 +1425,32 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1411,11 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1581,11 +1651,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1601,29 +1671,32 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1639,11 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,26 +1756,29 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1715,54 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,31 +1879,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1954,7 +2053,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -1962,8 +2061,8 @@
       <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1983,31 +2082,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2021,13 +2123,16 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>138800</v>
+        <v>140200</v>
       </c>
       <c r="E47" s="3">
         <v>138800</v>
@@ -2038,8 +2143,8 @@
       <c r="G47" s="3">
         <v>138800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>138800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2228,15 +2348,15 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,31 +2410,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E54" s="3">
         <v>138900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>139200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>139400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>139500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,31 +2526,34 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2433,19 +2567,22 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2456,8 +2593,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2471,31 +2608,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2564,8 +2710,8 @@
       <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,31 +2854,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>5300</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,31 +3076,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>700</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,31 +3240,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>138500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>138800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>139000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>139100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,69 +3322,75 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3211,11 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,13 +4075,16 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3847,31 +4093,34 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>138800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,26 +4157,29 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3941,9 +4193,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>ESSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,75 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
-        <v>43830</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +773,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +817,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,32 +1072,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1083,11 +1111,14 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,23 +1126,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1124,11 +1155,14 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1162,14 +1197,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1182,11 +1217,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,32 +1308,35 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1305,11 +1349,14 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,32 +1440,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1428,35 +1481,38 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1469,11 +1525,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1654,14 +1725,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1674,35 +1745,38 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1715,11 +1789,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,32 +1836,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1797,57 +1877,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
-        <v>43830</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1967,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,25 +1977,25 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1921,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2053,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2097,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2141,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2056,19 +2156,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2085,34 +2185,37 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2126,16 +2229,19 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E47" s="3">
         <v>140200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>138800</v>
       </c>
       <c r="F47" s="3">
         <v>138800</v>
@@ -2146,11 +2252,11 @@
       <c r="H47" s="3">
         <v>138800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>138800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>138800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2167,8 +2273,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2317,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2351,15 +2472,15 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>200</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2537,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E54" s="3">
         <v>140500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>139000</v>
+      </c>
+      <c r="G54" s="3">
         <v>138900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>139200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>139400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>139500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2619,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,35 +2661,38 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,34 +2705,37 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2611,35 +2749,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2700</v>
+        <v>6300</v>
       </c>
       <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2793,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2713,11 +2860,11 @@
       <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2734,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3013,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
-        <v>500</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,34 +3251,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1200</v>
+        <v>-6800</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H72" s="3">
         <v>300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>700</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,34 +3427,37 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="E76" s="3">
-        <v>138500</v>
+        <v>135200</v>
       </c>
       <c r="F76" s="3">
+        <v>136200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>136300</v>
+      </c>
+      <c r="H76" s="3">
         <v>138800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>139000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>139100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3284,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,78 +3515,84 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
-        <v>43830</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3409,11 +3605,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3890,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3684,40 +3902,43 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,31 +4084,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3897,8 +4128,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4322,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>138800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,32 +4410,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4196,9 +4449,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>ESSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,35 +1098,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1114,11 +1140,14 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,26 +1155,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1158,11 +1187,14 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1203,11 +1236,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1220,11 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,35 +1350,38 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1352,11 +1394,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,35 +1491,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1484,38 +1535,41 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1528,11 +1582,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1731,11 +1800,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1748,38 +1817,41 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1792,11 +1864,14 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,35 +1914,38 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1880,60 +1958,66 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,13 +2053,14 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -1983,22 +2069,22 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2100,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,13 +2239,16 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2162,7 +2260,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2170,8 +2268,8 @@
       <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>200</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2188,8 +2286,11 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2197,28 +2298,28 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2232,19 +2333,22 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E47" s="3">
         <v>141600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>140200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>138800</v>
       </c>
       <c r="G47" s="3">
         <v>138800</v>
@@ -2258,8 +2362,8 @@
       <c r="J47" s="3">
         <v>138800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>138800</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2276,8 +2380,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E54" s="3">
         <v>141700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>140500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>139000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>139200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>139400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>139500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2664,38 +2794,41 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,37 +2841,40 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2752,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2866,8 +3011,8 @@
       <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>400</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,37 +3424,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>700</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3298,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,37 +3612,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E76" s="3">
         <v>135000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>136200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>136300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>138800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>139000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>139100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3474,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,84 +3706,90 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3608,11 +3802,14 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,34 +4313,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1400</v>
+        <v>108100</v>
       </c>
       <c r="E94" s="3">
         <v>-1400</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-1400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4131,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,23 +4567,26 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4349,28 +4594,31 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>138800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,35 +4661,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4452,9 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>ESSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,86 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,8 +790,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +843,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,41 +1151,43 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1143,11 +1197,17 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,32 +1215,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1190,11 +1250,17 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1239,14 +1307,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1256,11 +1324,17 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1380,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,41 +1433,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1397,11 +1483,17 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,41 +1592,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1538,44 +1642,50 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1585,11 +1695,17 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1803,14 +1943,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1820,44 +1960,50 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1867,11 +2013,17 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,41 +2069,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -1961,63 +2119,75 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2226,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,34 +2237,34 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2101,8 +2275,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2328,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,19 +2434,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2263,19 +2461,19 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2487,14 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,34 +2502,34 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2336,8 +2540,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2345,16 +2555,16 @@
         <v>33500</v>
       </c>
       <c r="E47" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>33500</v>
+      </c>
+      <c r="G47" s="3">
         <v>141600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>140200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>138800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>138800</v>
       </c>
       <c r="I47" s="3">
         <v>138800</v>
@@ -2365,11 +2575,11 @@
       <c r="K47" s="3">
         <v>138800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>138800</v>
+      </c>
+      <c r="M47" s="3">
+        <v>138800</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2383,8 +2593,14 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2597,18 +2837,18 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2911,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,35 +2926,35 @@
         <v>33600</v>
       </c>
       <c r="E54" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="G54" s="3">
         <v>141700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>140500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>139000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>138900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>139200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>139400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>139500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3010,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,44 +3059,50 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,43 +3112,49 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6600</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="F59" s="3">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="G59" s="3">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="H59" s="3">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -2891,44 +3165,50 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9900</v>
+        <v>5800</v>
       </c>
       <c r="E60" s="3">
-        <v>6300</v>
+        <v>5200</v>
       </c>
       <c r="F60" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G60" s="3">
-        <v>2400</v>
+        <v>4200</v>
       </c>
       <c r="H60" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3218,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,40 +3271,46 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>5500</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
+        <v>400</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3483,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,43 +3769,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>700</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,43 +3981,49 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F76" s="3">
         <v>23300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>135000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>135200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>136200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>136300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>138800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>139000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>139100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,93 +4087,105 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -3805,11 +4195,17 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,31 +4770,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>108100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4348,8 +4808,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-107800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>138800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5162,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,32 +5177,32 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4706,9 +5210,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
